--- a/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\mercury\mercury\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="1980" yWindow="480" windowWidth="29240" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,17 @@
     <definedName name="kitused">Sheet2!$E$1:$E$18</definedName>
     <definedName name="Libtypes">Sheet2!$A$1:$A$20</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -265,7 +265,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>If samples are human and No IRB approval is needed, please indicate why in Col C "IRB Number" ie. IRB Exempt, IRB approval not needed for purchased or public domain TC cells</t>
     </r>
@@ -322,9 +321,6 @@
     <t>see Organism column</t>
   </si>
   <si>
-    <t>see IRB# column</t>
-  </si>
-  <si>
     <t xml:space="preserve">TruSeq Small RNA Sample Preparation Kit </t>
   </si>
   <si>
@@ -349,18 +345,9 @@
     <t>Nextera XT</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
     <t>hh</t>
   </si>
   <si>
-    <t>More tests</t>
-  </si>
-  <si>
     <t>dfgd</t>
   </si>
   <si>
@@ -383,13 +370,134 @@
   </si>
   <si>
     <t>WholeGenomeShotgun.Resequencing</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>HiSeqX</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>SampleColab21</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <r>
+      <t>407625599</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TEST</t>
+    </r>
+  </si>
+  <si>
+    <t>4076255993TEST</t>
+  </si>
+  <si>
+    <t>more info</t>
+  </si>
+  <si>
+    <t>more inf 2</t>
+  </si>
+  <si>
+    <t>more inf3</t>
+  </si>
+  <si>
+    <t>The PI</t>
+  </si>
+  <si>
+    <t>hg19</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes Later</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Accessor</t>
+  </si>
+  <si>
+    <t>CCLF</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>SampleColab22</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Fox Trot</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>02142</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>617-423-1234</t>
+  </si>
+  <si>
+    <t>none@none.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -646,6 +754,18 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="35">
@@ -843,16 +963,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,47 +1085,47 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1075,8 +1195,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1102,14 +1256,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="46" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="1" xfId="46" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="46" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="46" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1"/>
@@ -1194,8 +1346,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="46" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="100">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
@@ -1236,11 +1394,45 @@
     <cellStyle name="Calculation 2" xfId="30"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
     <cellStyle name="Heading 3 2" xfId="34"/>
     <cellStyle name="Heading 4 2" xfId="35"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="63"/>
     <cellStyle name="Input 2" xfId="36"/>
     <cellStyle name="Linked Cell 2" xfId="37"/>
@@ -1315,13 +1507,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>116418</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1407,7 +1599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,7 +1634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,874 +1843,1016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM28" sqref="AM28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" style="41" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="41" customWidth="1"/>
-    <col min="28" max="28" width="40.7109375" customWidth="1"/>
-    <col min="29" max="32" width="40.85546875" customWidth="1"/>
-    <col min="33" max="33" width="31.42578125" style="41" customWidth="1"/>
-    <col min="34" max="36" width="40.85546875" customWidth="1"/>
-    <col min="37" max="37" width="40.85546875" style="41" customWidth="1"/>
-    <col min="38" max="38" width="40.85546875" customWidth="1"/>
-    <col min="39" max="52" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="77" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="40.6640625" customWidth="1"/>
+    <col min="29" max="32" width="40.83203125" customWidth="1"/>
+    <col min="33" max="33" width="31.5" style="39" customWidth="1"/>
+    <col min="34" max="36" width="40.83203125" customWidth="1"/>
+    <col min="37" max="37" width="40.83203125" style="39" customWidth="1"/>
+    <col min="38" max="38" width="40.83203125" customWidth="1"/>
+    <col min="39" max="52" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="AA1" s="61"/>
-    </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:28" s="39" customFormat="1">
+      <c r="J1" s="77"/>
+    </row>
+    <row r="2" spans="2:28" ht="17" customHeight="1">
+      <c r="AA2" s="59"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="61"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="AA3" s="61"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="AA3" s="59"/>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="AA4" s="59"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="61"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="AA5" s="59"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" s="59"/>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" s="59"/>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" s="59"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA9" s="59"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="AA10" s="59"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="C11" s="3"/>
+      <c r="AA11" s="59"/>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="62"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="C18" s="13"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="62"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="63"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="63"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="63"/>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="63"/>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="63"/>
+    </row>
+    <row r="24" spans="1:39" s="2" customFormat="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="J24" s="77"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="63"/>
+      <c r="AG24" s="39"/>
+      <c r="AK24" s="39"/>
+    </row>
+    <row r="25" spans="1:39" s="2" customFormat="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="49"/>
+      <c r="J25" s="77"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="63"/>
+      <c r="AG25" s="39"/>
+      <c r="AK25" s="39"/>
+    </row>
+    <row r="26" spans="1:39" s="2" customFormat="1">
+      <c r="A26" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="J26" s="77"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="63"/>
+      <c r="AG26" s="39"/>
+      <c r="AK26" s="39"/>
+    </row>
+    <row r="27" spans="1:39" s="33" customFormat="1" ht="78.75" customHeight="1">
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA27" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB27" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC27" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE27" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF27" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG27" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH27" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI27" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ27" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK27" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL27" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM27" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" s="39" customFormat="1" ht="14">
+      <c r="A28" s="29">
         <v>1</v>
       </c>
-      <c r="AA5" s="61"/>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B28" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23">
+        <v>99</v>
+      </c>
+      <c r="S28" s="23">
+        <v>626</v>
+      </c>
+      <c r="T28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="22">
+        <v>7</v>
+      </c>
+      <c r="W28" s="22">
+        <v>443</v>
+      </c>
+      <c r="X28" s="22">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA28" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB28" s="22">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD28" s="22">
+        <v>22233</v>
+      </c>
+      <c r="AE28" s="22">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH28" s="91">
+        <v>43831</v>
+      </c>
+      <c r="AI28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM28" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" s="39" customFormat="1" ht="14">
+      <c r="A29" s="29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="32"/>
+      <c r="M29" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23">
+        <v>99</v>
+      </c>
+      <c r="S29" s="23">
+        <v>626</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="22">
+        <v>7</v>
+      </c>
+      <c r="W29" s="22">
+        <v>444</v>
+      </c>
+      <c r="X29" s="22">
+        <v>68</v>
+      </c>
+      <c r="Y29" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z29" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD29" s="22">
+        <v>22233</v>
+      </c>
+      <c r="AE29" s="22">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH29" s="91">
+        <v>43831</v>
+      </c>
+      <c r="AI29" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ29" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM29" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" s="39" customFormat="1" ht="14">
+      <c r="A30" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="61"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="61" t="s">
+      <c r="B30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="32"/>
+      <c r="M30" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23">
+        <v>99</v>
+      </c>
+      <c r="S30" s="23">
+        <v>626</v>
+      </c>
+      <c r="T30" s="22">
+        <v>0</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="22">
+        <v>7</v>
+      </c>
+      <c r="W30" s="22">
+        <v>445</v>
+      </c>
+      <c r="X30" s="22">
+        <v>69</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z30" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB30" s="22">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD30" s="22">
+        <v>22233</v>
+      </c>
+      <c r="AE30" s="22">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
-        <v>223</v>
-      </c>
-      <c r="AA7" s="61"/>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="61"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="AA9" s="61"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="AA10" s="61"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12">
-        <v>7</v>
-      </c>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="64"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C17" s="13"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="64"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="65"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="65"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="65"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="65"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="65"/>
-    </row>
-    <row r="23" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="J23" s="79"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="65"/>
-      <c r="AG23" s="41"/>
-      <c r="AK23" s="41"/>
-    </row>
-    <row r="24" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="51"/>
-      <c r="J24" s="79"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="65"/>
-      <c r="AG24" s="41"/>
-      <c r="AK24" s="41"/>
-    </row>
-    <row r="25" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="J25" s="79"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="65"/>
-      <c r="AG25" s="41"/>
-      <c r="AK25" s="41"/>
-    </row>
-    <row r="26" spans="1:39" s="35" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z26" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA26" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB26" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC26" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD26" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF26" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG26" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH26" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI26" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ26" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK26" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL26" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM26" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>1</v>
-      </c>
-      <c r="B27" s="32">
-        <v>2222</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="76">
-        <v>3333</v>
-      </c>
-      <c r="E27" s="76">
-        <v>444</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="86" t="s">
+      <c r="AF30" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG30" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH30" s="91">
+        <v>43831</v>
+      </c>
+      <c r="AI30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ30" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK30" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM30" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="O27" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="P27" s="22">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="25">
-        <v>99</v>
-      </c>
-      <c r="S27" s="25">
-        <v>626</v>
-      </c>
-      <c r="T27" s="24">
-        <v>0</v>
-      </c>
-      <c r="U27" s="26">
-        <v>90</v>
-      </c>
-      <c r="V27" s="24">
-        <v>7</v>
-      </c>
-      <c r="W27" s="24">
-        <v>443</v>
-      </c>
-      <c r="X27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="Y27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="Z27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AA27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AB27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AC27" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AE27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AF27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AG27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AH27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AI27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AJ27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AK27" s="24">
-        <v>22233</v>
-      </c>
-      <c r="AL27" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM27" s="61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-    </row>
-    <row r="29" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="27"/>
-    </row>
-    <row r="30" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-    </row>
-    <row r="31" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:39" s="1" customFormat="1" ht="14">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-    </row>
-    <row r="32" spans="1:39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="19"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+    </row>
+    <row r="32" spans="1:39" s="1" customFormat="1" ht="14">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-    </row>
-    <row r="33" spans="1:38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="19"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+    </row>
+    <row r="33" spans="1:38" s="1" customFormat="1" ht="14">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-    </row>
-    <row r="34" spans="1:38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33" s="19"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+    </row>
+    <row r="34" spans="1:38" s="1" customFormat="1" ht="14">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-    </row>
-    <row r="35" spans="1:38" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-    </row>
-    <row r="36" spans="1:38" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="45"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="43"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="AA36" s="41"/>
-    </row>
-    <row r="37" spans="1:38" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+    </row>
+    <row r="35" spans="1:38" s="1" customFormat="1" ht="14">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+    </row>
+    <row r="36" spans="1:38" s="34" customFormat="1" ht="14">
+      <c r="A36" s="48"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+    </row>
+    <row r="37" spans="1:38" s="34" customFormat="1" ht="14">
+      <c r="A37" s="45"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="43"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="59"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
       <c r="N37" s="43"/>
       <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="AA37" s="41"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
+      <c r="P37" s="41"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="AA37" s="39"/>
+    </row>
+    <row r="38" spans="1:38" s="34" customFormat="1" ht="14">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="57"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="AA38" s="39"/>
+    </row>
+    <row r="39" spans="1:38">
+      <c r="A39" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U27:U37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28:U38">
       <formula1>kitused</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K27:K37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28:K38">
       <formula1>Libtypes</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2530,9 +2864,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +2882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2556,7 +2890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2898,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2572,7 +2906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -2588,7 +2922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2596,7 +2930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -2604,7 +2938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -2612,7 +2946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -2620,71 +2954,76 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="E16" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="480" windowWidth="29240" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28060" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -318,9 +318,6 @@
     <t>(leave blank for multi-organism submission)</t>
   </si>
   <si>
-    <t>see Organism column</t>
-  </si>
-  <si>
     <t xml:space="preserve">TruSeq Small RNA Sample Preparation Kit </t>
   </si>
   <si>
@@ -379,9 +376,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>HiSeqX</t>
   </si>
   <si>
     <t>F</t>
@@ -492,12 +486,24 @@
   <si>
     <t>none@none.com</t>
   </si>
+  <si>
+    <t>Illumina_P5-Lanah_P7-Cehih</t>
+  </si>
+  <si>
+    <t>see Organism column for genus</t>
+  </si>
+  <si>
+    <t>see Organism column for species</t>
+  </si>
+  <si>
+    <t>HiSeq X 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -767,8 +773,14 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1229,8 +1247,28 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1343,7 +1381,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1352,8 +1389,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="46" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="120">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
@@ -1411,6 +1453,16 @@
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -1433,6 +1485,16 @@
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="63"/>
     <cellStyle name="Input 2" xfId="36"/>
     <cellStyle name="Linked Cell 2" xfId="37"/>
@@ -1845,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1906,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA6" s="59"/>
     </row>
@@ -1915,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="59"/>
     </row>
@@ -1924,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="59"/>
     </row>
@@ -1933,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA9" s="59"/>
     </row>
@@ -1953,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA12" s="59"/>
       <c r="AB12" s="61" t="s">
@@ -1965,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="59"/>
       <c r="AB13" s="62" t="s">
@@ -1976,8 +2038,8 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>141</v>
+      <c r="C14" s="91" t="s">
+        <v>139</v>
       </c>
       <c r="AA14" s="59"/>
       <c r="AB14" s="62" t="s">
@@ -1989,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA15" s="59"/>
       <c r="AB15" s="62" t="s">
@@ -2000,8 +2062,8 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>143</v>
+      <c r="C16" s="91" t="s">
+        <v>141</v>
       </c>
       <c r="AA16" s="59"/>
       <c r="AB16" s="62" t="s">
@@ -2013,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA17" s="59"/>
       <c r="AB17" s="62"/>
@@ -2048,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AA21" s="59"/>
       <c r="AB21" s="63"/>
@@ -2058,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AA22" s="59"/>
       <c r="AB22" s="63"/>
@@ -2068,7 +2130,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA23" s="59"/>
       <c r="AB23" s="63"/>
@@ -2132,7 +2194,7 @@
       <c r="H27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="94" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="78" t="s">
@@ -2190,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="AB27" s="71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC27" s="60" t="s">
         <v>78</v>
@@ -2205,7 +2267,7 @@
         <v>81</v>
       </c>
       <c r="AG27" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH27" s="60" t="s">
         <v>82</v>
@@ -2217,13 +2279,13 @@
         <v>84</v>
       </c>
       <c r="AK27" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL27" s="60" t="s">
         <v>85</v>
       </c>
       <c r="AM27" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="39" customFormat="1" ht="14">
@@ -2231,43 +2293,43 @@
         <v>1</v>
       </c>
       <c r="B28" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="H28" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="89" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="84" t="s">
-        <v>107</v>
       </c>
       <c r="K28" s="76" t="s">
         <v>57</v>
       </c>
       <c r="L28" s="32"/>
-      <c r="M28" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="85" t="s">
-        <v>108</v>
+      <c r="M28" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="84" t="s">
+        <v>107</v>
       </c>
       <c r="O28" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="P28" s="87" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="P28" s="86" t="s">
+        <v>112</v>
       </c>
       <c r="Q28" s="22"/>
       <c r="R28" s="23">
@@ -2292,19 +2354,19 @@
         <v>67</v>
       </c>
       <c r="Y28" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z28" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA28" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB28" s="22">
         <v>76</v>
       </c>
       <c r="AC28" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD28" s="22">
         <v>22233</v>
@@ -2313,26 +2375,26 @@
         <v>2</v>
       </c>
       <c r="AF28" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG28" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH28" s="90">
+        <v>43831</v>
+      </c>
+      <c r="AI28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="AH28" s="91">
-        <v>43831</v>
-      </c>
-      <c r="AI28" s="22" t="s">
+      <c r="AJ28" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="AJ28" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="AK28" s="22"/>
       <c r="AL28" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AM28" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="39" customFormat="1" ht="14">
@@ -2340,43 +2402,43 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="88" t="s">
+      <c r="H29" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="31" t="s">
+      <c r="I29" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="89" t="s">
         <v>118</v>
-      </c>
-      <c r="I29" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" s="90" t="s">
-        <v>120</v>
       </c>
       <c r="K29" s="76" t="s">
         <v>57</v>
       </c>
       <c r="L29" s="32"/>
-      <c r="M29" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="N29" s="85" t="s">
-        <v>108</v>
+      <c r="M29" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="84" t="s">
+        <v>107</v>
       </c>
       <c r="O29" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="87" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="P29" s="86" t="s">
+        <v>112</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="23">
@@ -2401,19 +2463,19 @@
         <v>68</v>
       </c>
       <c r="Y29" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA29" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB29" s="22">
         <v>76</v>
       </c>
       <c r="AC29" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD29" s="22">
         <v>22233</v>
@@ -2422,26 +2484,26 @@
         <v>2</v>
       </c>
       <c r="AF29" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG29" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH29" s="91">
+        <v>124</v>
+      </c>
+      <c r="AH29" s="90">
         <v>43831</v>
       </c>
       <c r="AI29" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ29" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AK29" s="22"/>
       <c r="AL29" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AM29" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:39" s="39" customFormat="1" ht="14">
@@ -2449,43 +2511,45 @@
         <v>3</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88" t="s">
+      <c r="H30" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="89" t="s">
+      <c r="J30" s="89" t="s">
         <v>119</v>
-      </c>
-      <c r="J30" s="90" t="s">
-        <v>121</v>
       </c>
       <c r="K30" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="85" t="s">
-        <v>108</v>
+      <c r="L30" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="84" t="s">
+        <v>107</v>
       </c>
       <c r="O30" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="P30" s="87" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="P30" s="86" t="s">
+        <v>112</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="23">
@@ -2510,19 +2574,19 @@
         <v>69</v>
       </c>
       <c r="Y30" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z30" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA30" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB30" s="22">
         <v>76</v>
       </c>
       <c r="AC30" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD30" s="22">
         <v>22233</v>
@@ -2531,28 +2595,28 @@
         <v>4</v>
       </c>
       <c r="AF30" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG30" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH30" s="90">
+        <v>43831</v>
+      </c>
+      <c r="AI30" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ30" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="AH30" s="91">
-        <v>43831</v>
-      </c>
-      <c r="AI30" s="22" t="s">
+      <c r="AK30" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL30" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AJ30" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK30" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL30" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="AM30" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:39" s="1" customFormat="1" ht="14">
@@ -2836,7 +2900,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28:U38">
       <formula1>kitused</formula1>
     </dataValidation>
@@ -2959,7 +3023,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2967,7 +3031,7 @@
         <v>52</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2983,7 +3047,7 @@
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2991,7 +3055,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
@@ -430,9 +430,6 @@
     <t>The PI</t>
   </si>
   <si>
-    <t>hg19</t>
-  </si>
-  <si>
     <t>human</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>HiSeq X 10</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_assembly19</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1213,6 +1213,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1395,7 +1397,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="122">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
@@ -1463,6 +1465,7 @@
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -1495,6 +1498,7 @@
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="63"/>
     <cellStyle name="Input 2" xfId="36"/>
     <cellStyle name="Linked Cell 2" xfId="37"/>
@@ -1908,7 +1912,7 @@
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1968,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA6" s="59"/>
     </row>
@@ -1977,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA7" s="59"/>
     </row>
@@ -1986,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="59"/>
     </row>
@@ -1995,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA9" s="59"/>
     </row>
@@ -2015,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA12" s="59"/>
       <c r="AB12" s="61" t="s">
@@ -2027,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA13" s="59"/>
       <c r="AB13" s="62" t="s">
@@ -2039,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA14" s="59"/>
       <c r="AB14" s="62" t="s">
@@ -2051,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA15" s="59"/>
       <c r="AB15" s="62" t="s">
@@ -2063,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA16" s="59"/>
       <c r="AB16" s="62" t="s">
@@ -2075,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA17" s="59"/>
       <c r="AB17" s="62"/>
@@ -2110,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA21" s="59"/>
       <c r="AB21" s="63"/>
@@ -2120,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA22" s="59"/>
       <c r="AB22" s="63"/>
@@ -2293,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>105</v>
@@ -2357,7 +2361,7 @@
         <v>120</v>
       </c>
       <c r="Z28" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA28" s="22" t="s">
         <v>111</v>
@@ -2378,20 +2382,20 @@
         <v>123</v>
       </c>
       <c r="AG28" s="22" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AH28" s="90">
         <v>43831</v>
       </c>
       <c r="AI28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ28" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK28" s="22"/>
       <c r="AL28" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM28" s="59" t="s">
         <v>110</v>
@@ -2402,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="83" t="s">
         <v>105</v>
@@ -2419,7 +2423,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" s="89" t="s">
         <v>118</v>
@@ -2466,7 +2470,7 @@
         <v>121</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA29" s="22" t="s">
         <v>111</v>
@@ -2487,20 +2491,20 @@
         <v>123</v>
       </c>
       <c r="AG29" s="22" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AH29" s="90">
         <v>43831</v>
       </c>
       <c r="AI29" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ29" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="AJ29" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="AK29" s="22"/>
       <c r="AL29" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM29" s="59" t="s">
         <v>110</v>
@@ -2511,7 +2515,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="92" t="s">
         <v>105</v>
@@ -2525,7 +2529,7 @@
         <v>115</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="88" t="s">
         <v>117</v>
@@ -2537,7 +2541,7 @@
         <v>57</v>
       </c>
       <c r="L30" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M30" s="85" t="s">
         <v>109</v>
@@ -2577,7 +2581,7 @@
         <v>122</v>
       </c>
       <c r="Z30" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AA30" s="22" t="s">
         <v>111</v>
@@ -2598,22 +2602,22 @@
         <v>123</v>
       </c>
       <c r="AG30" s="22" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AH30" s="90">
         <v>43831</v>
       </c>
       <c r="AI30" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ30" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK30" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AJ30" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK30" s="22" t="s">
+      <c r="AL30" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="AL30" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="AM30" s="59" t="s">
         <v>110</v>

--- a/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28060" windowHeight="7280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35280" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Homo_sapiens_assembly19</t>
+  </si>
+  <si>
+    <t>humanoid</t>
+  </si>
+  <si>
+    <t>sub-human</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2470,7 +2476,7 @@
         <v>121</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AA29" s="22" t="s">
         <v>111</v>
@@ -2581,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="Z30" s="22" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="AA30" s="22" t="s">
         <v>111</v>

--- a/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryMultiOrganismTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>sub-human</t>
+  </si>
+  <si>
+    <t>Sample Tube Barcode</t>
+  </si>
+  <si>
+    <t>4076255991</t>
+  </si>
+  <si>
+    <t>4076255992</t>
+  </si>
+  <si>
+    <t>4076255993</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1275,8 +1287,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1316,7 +1332,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="46" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="12" xfId="46" applyFill="1" applyBorder="1"/>
@@ -1403,7 +1418,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="126">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent2 2" xfId="9"/>
@@ -1472,6 +1487,8 @@
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -1505,6 +1522,8 @@
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="63"/>
     <cellStyle name="Input 2" xfId="36"/>
     <cellStyle name="Linked Cell 2" xfId="37"/>
@@ -1917,19 +1936,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L20" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="76" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" customWidth="1"/>
@@ -1938,31 +1958,31 @@
     <col min="22" max="22" width="14.5" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" customWidth="1"/>
     <col min="25" max="25" width="13.1640625" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="39" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" style="39" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="38" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" style="38" customWidth="1"/>
     <col min="28" max="28" width="40.6640625" customWidth="1"/>
     <col min="29" max="32" width="40.83203125" customWidth="1"/>
-    <col min="33" max="33" width="31.5" style="39" customWidth="1"/>
+    <col min="33" max="33" width="31.5" style="38" customWidth="1"/>
     <col min="34" max="36" width="40.83203125" customWidth="1"/>
-    <col min="37" max="37" width="40.83203125" style="39" customWidth="1"/>
+    <col min="37" max="37" width="40.83203125" style="38" customWidth="1"/>
     <col min="38" max="38" width="40.83203125" customWidth="1"/>
     <col min="39" max="52" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" s="39" customFormat="1">
-      <c r="J1" s="77"/>
+    <row r="1" spans="2:28" s="38" customFormat="1">
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="2:28" ht="17" customHeight="1">
-      <c r="AA2" s="59"/>
+      <c r="AA2" s="58"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="59"/>
+      <c r="AA3" s="58"/>
     </row>
     <row r="4" spans="2:28">
-      <c r="AA4" s="59"/>
+      <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" t="s">
@@ -1971,7 +1991,7 @@
       <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="59"/>
+      <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" t="s">
@@ -1980,7 +2000,7 @@
       <c r="C6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" s="59"/>
+      <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" t="s">
@@ -1989,16 +2009,16 @@
       <c r="C7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AA7" s="59"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="2:28">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AA8" s="59"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" t="s">
@@ -2007,18 +2027,18 @@
       <c r="C9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AA9" s="59"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="2:28">
       <c r="C11" s="3"/>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" t="s">
@@ -2027,8 +2047,8 @@
       <c r="C12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="61" t="s">
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="60" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2039,8 +2059,8 @@
       <c r="C13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="62" t="s">
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="61" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2048,11 +2068,11 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="62" t="s">
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="61" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2063,8 +2083,8 @@
       <c r="C15" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="62" t="s">
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="61" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2072,11 +2092,11 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="62" t="s">
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="61" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2087,102 +2107,105 @@
       <c r="C17" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="62"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="61"/>
     </row>
     <row r="18" spans="1:39">
       <c r="C18" s="13"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="62"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="61"/>
     </row>
     <row r="19" spans="1:39">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="63"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="62"/>
     </row>
     <row r="20" spans="1:39">
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="63"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="62"/>
     </row>
     <row r="21" spans="1:39">
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="63"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="62"/>
     </row>
     <row r="22" spans="1:39">
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="63"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="62"/>
     </row>
     <row r="23" spans="1:39">
       <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="63"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="62"/>
     </row>
     <row r="24" spans="1:39" s="2" customFormat="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="J24" s="77"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="63"/>
-      <c r="AG24" s="39"/>
-      <c r="AK24" s="39"/>
+      <c r="C24" s="48"/>
+      <c r="J24" s="76"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="62"/>
+      <c r="AG24" s="38"/>
+      <c r="AK24" s="38"/>
     </row>
     <row r="25" spans="1:39" s="2" customFormat="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="49"/>
-      <c r="J25" s="77"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="63"/>
-      <c r="AG25" s="39"/>
-      <c r="AK25" s="39"/>
+      <c r="C25" s="48"/>
+      <c r="J25" s="76"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="62"/>
+      <c r="AG25" s="38"/>
+      <c r="AK25" s="38"/>
     </row>
     <row r="26" spans="1:39" s="2" customFormat="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="J26" s="77"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="63"/>
-      <c r="AG26" s="39"/>
-      <c r="AK26" s="39"/>
-    </row>
-    <row r="27" spans="1:39" s="33" customFormat="1" ht="78.75" customHeight="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="J26" s="76"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="62"/>
+      <c r="AG26" s="38"/>
+      <c r="AK26" s="38"/>
+    </row>
+    <row r="27" spans="1:39" s="32" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A27" s="32" t="s">
+        <v>149</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>73</v>
       </c>
@@ -2204,10 +2227,10 @@
       <c r="H27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="94" t="s">
+      <c r="I27" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="78" t="s">
+      <c r="J27" s="77" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -2255,90 +2278,90 @@
       <c r="Y27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z27" s="70" t="s">
+      <c r="Z27" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="AA27" s="60" t="s">
+      <c r="AA27" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="AB27" s="71" t="s">
+      <c r="AB27" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="AC27" s="60" t="s">
+      <c r="AC27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="AD27" s="60" t="s">
+      <c r="AD27" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AE27" s="60" t="s">
+      <c r="AE27" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AF27" s="60" t="s">
+      <c r="AF27" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AG27" s="66" t="s">
+      <c r="AG27" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AH27" s="60" t="s">
+      <c r="AH27" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AI27" s="60" t="s">
+      <c r="AI27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AJ27" s="60" t="s">
+      <c r="AJ27" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="AK27" s="60" t="s">
+      <c r="AK27" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="AL27" s="60" t="s">
+      <c r="AL27" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AM27" s="60" t="s">
+      <c r="AM27" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="39" customFormat="1" ht="14">
-      <c r="A28" s="29">
-        <v>1</v>
-      </c>
-      <c r="B28" s="30" t="s">
+    <row r="28" spans="1:39" s="38" customFormat="1" ht="14">
+      <c r="A28" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="87" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87" t="s">
+      <c r="F28" s="86"/>
+      <c r="G28" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J28" s="89" t="s">
+      <c r="J28" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="76" t="s">
+      <c r="K28" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="85" t="s">
+      <c r="L28" s="31"/>
+      <c r="M28" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="N28" s="84" t="s">
+      <c r="N28" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="O28" s="75" t="s">
+      <c r="O28" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="P28" s="86" t="s">
+      <c r="P28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="Q28" s="22"/>
@@ -2390,7 +2413,7 @@
       <c r="AG28" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AH28" s="90">
+      <c r="AH28" s="89">
         <v>43831</v>
       </c>
       <c r="AI28" s="22" t="s">
@@ -2403,51 +2426,51 @@
       <c r="AL28" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AM28" s="59" t="s">
+      <c r="AM28" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="39" customFormat="1" ht="14">
-      <c r="A29" s="29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="1:39" s="38" customFormat="1" ht="14">
+      <c r="A29" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="87" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87" t="s">
+      <c r="F29" s="86"/>
+      <c r="G29" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I29" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="J29" s="89" t="s">
+      <c r="J29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="32"/>
-      <c r="M29" s="85" t="s">
+      <c r="L29" s="31"/>
+      <c r="M29" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="84" t="s">
+      <c r="N29" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="O29" s="75" t="s">
+      <c r="O29" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="P29" s="86" t="s">
+      <c r="P29" s="85" t="s">
         <v>112</v>
       </c>
       <c r="Q29" s="22"/>
@@ -2499,7 +2522,7 @@
       <c r="AG29" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AH29" s="90">
+      <c r="AH29" s="89">
         <v>43831</v>
       </c>
       <c r="AI29" s="22" t="s">
@@ -2512,53 +2535,53 @@
       <c r="AL29" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AM29" s="59" t="s">
+      <c r="AM29" s="58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="39" customFormat="1" ht="14">
-      <c r="A30" s="29">
-        <v>3</v>
-      </c>
-      <c r="B30" s="30" t="s">
+    <row r="30" spans="1:39" s="38" customFormat="1" ht="14">
+      <c r="A30" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="87" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87" t="s">
+      <c r="F30" s="86"/>
+      <c r="G30" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="88" t="s">
+      <c r="I30" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="K30" s="76" t="s">
+      <c r="K30" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="93" t="s">
+      <c r="L30" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="M30" s="85" t="s">
+      <c r="M30" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="N30" s="84" t="s">
+      <c r="N30" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="O30" s="75" t="s">
+      <c r="O30" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="P30" s="86" t="s">
+      <c r="P30" s="85" t="s">
         <v>112</v>
       </c>
       <c r="Q30" s="22"/>
@@ -2610,7 +2633,7 @@
       <c r="AG30" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AH30" s="90">
+      <c r="AH30" s="89">
         <v>43831</v>
       </c>
       <c r="AI30" s="22" t="s">
@@ -2625,7 +2648,7 @@
       <c r="AL30" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AM30" s="59" t="s">
+      <c r="AM30" s="58" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2639,7 +2662,7 @@
       <c r="G31" s="28"/>
       <c r="H31" s="16"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="79"/>
+      <c r="J31" s="78"/>
       <c r="K31" s="26"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -2679,7 +2702,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="17"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="79"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="26"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -2719,7 +2742,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="17"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="79"/>
+      <c r="J33" s="78"/>
       <c r="K33" s="26"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -2759,7 +2782,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="17"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="79"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="26"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -2799,7 +2822,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="17"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="79"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="26"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -2829,84 +2852,84 @@
       <c r="AK35" s="25"/>
       <c r="AL35" s="25"/>
     </row>
-    <row r="36" spans="1:38" s="34" customFormat="1" ht="14">
-      <c r="A36" s="48"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-    </row>
-    <row r="37" spans="1:38" s="34" customFormat="1" ht="14">
-      <c r="A37" s="45"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="41"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="AA37" s="39"/>
-    </row>
-    <row r="38" spans="1:38" s="34" customFormat="1" ht="14">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="57"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="AA38" s="39"/>
+    <row r="36" spans="1:38" s="33" customFormat="1" ht="14">
+      <c r="A36" s="47"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+    </row>
+    <row r="37" spans="1:38" s="33" customFormat="1" ht="14">
+      <c r="A37" s="44"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="42"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="40"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="AA37" s="38"/>
+    </row>
+    <row r="38" spans="1:38" s="33" customFormat="1" ht="14">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="56"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="AA38" s="38"/>
     </row>
     <row r="39" spans="1:38">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3032,7 +3055,7 @@
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="71" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3040,7 +3063,7 @@
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="71" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3048,7 +3071,7 @@
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3064,15 +3087,15 @@
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>70</v>
       </c>
     </row>
